--- a/受控文档/05-需求分析/需求优先级/优先级打分（终）/游客优先级.xlsx
+++ b/受控文档/05-需求分析/需求优先级/优先级打分（终）/游客优先级.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="web" sheetId="1" r:id="rId1"/>
+    <sheet name="app" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +19,126 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>相对收益</t>
+  </si>
+  <si>
+    <t>相对损失</t>
+  </si>
+  <si>
+    <t>总价值</t>
+  </si>
+  <si>
+    <t>价值%</t>
+  </si>
+  <si>
+    <t>相对费用</t>
+  </si>
+  <si>
+    <t>费用%</t>
+  </si>
+  <si>
+    <t>相对风险</t>
+  </si>
+  <si>
+    <t>风险%</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览网站</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看网站通告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看网站用户协议</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看网站友情链接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看网站联系信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看网站历史通告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览网站推荐和热点内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览轮播图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局搜索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问下载app二维码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览网站</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看网站通告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看网站友情链接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览网站推荐和热点内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局搜索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问其他界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面访问限制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +146,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,18 +190,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -69,7 +292,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +337,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +372,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +554,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="11" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <v>4</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
+        <v>6</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
+        <v>4</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
+        <v>8</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="11" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/受控文档/05-需求分析/需求优先级/优先级打分（终）/游客优先级.xlsx
+++ b/受控文档/05-需求分析/需求优先级/优先级打分（终）/游客优先级.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="web" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>访问其他界面</t>
+    <t>界面访问限制</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -222,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -246,6 +246,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -556,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -603,7 +605,9 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
       <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
@@ -613,18 +617,37 @@
       <c r="D2" s="7">
         <v>9</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="5">
+        <f>SUM(C2:D2)</f>
+        <v>18</v>
+      </c>
+      <c r="F2" s="9">
+        <f>E2/SUM(E:E)</f>
+        <v>0.13740458015267176</v>
+      </c>
       <c r="G2" s="5">
         <v>7</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="H2" s="9">
+        <f>G2/SUM(G:G)</f>
+        <v>0.12280701754385964</v>
+      </c>
+      <c r="I2" s="5">
+        <v>8</v>
+      </c>
+      <c r="J2" s="9">
+        <f>I2/SUM(I:I)</f>
+        <v>0.13114754098360656</v>
+      </c>
+      <c r="K2" s="10">
+        <f>F2/(H2+J2)</f>
+        <v>0.54105971142790465</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
@@ -634,18 +657,37 @@
       <c r="D3" s="7">
         <v>6</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E13" si="0">SUM(C3:D3)</f>
+        <v>14</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F13" si="1">E3/SUM(E:E)</f>
+        <v>0.10687022900763359</v>
+      </c>
       <c r="G3" s="5">
         <v>4</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H13" si="2">G3/SUM(G:G)</f>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>4</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J13" si="3">I3/SUM(I:I)</f>
+        <v>6.5573770491803282E-2</v>
+      </c>
+      <c r="K3" s="10">
+        <f t="shared" ref="K3:K13" si="4">F3/(H3+J3)</f>
+        <v>0.78726225902445324</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
@@ -655,18 +697,37 @@
       <c r="D4" s="7">
         <v>5</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="1"/>
+        <v>6.8702290076335881E-2</v>
+      </c>
       <c r="G4" s="5">
         <v>4</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="H4" s="9">
+        <f t="shared" si="2"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>4</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="3"/>
+        <v>6.5573770491803282E-2</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" si="4"/>
+        <v>0.50609716651572001</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -676,18 +737,37 @@
       <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="1"/>
+        <v>3.8167938931297711E-2</v>
+      </c>
       <c r="G5" s="5">
         <v>4</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="H5" s="9">
+        <f t="shared" si="2"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="3"/>
+        <v>6.5573770491803282E-2</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" si="4"/>
+        <v>0.28116509250873334</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -697,18 +777,37 @@
       <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="1"/>
+        <v>2.2900763358778626E-2</v>
+      </c>
       <c r="G6" s="5">
         <v>4</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="H6" s="9">
+        <f t="shared" si="2"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="3"/>
+        <v>6.5573770491803282E-2</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="4"/>
+        <v>0.16869905550523998</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
@@ -718,18 +817,37 @@
       <c r="D7" s="7">
         <v>6</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="1"/>
+        <v>9.1603053435114504E-2</v>
+      </c>
       <c r="G7" s="5">
         <v>4</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="H7" s="9">
+        <f t="shared" si="2"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="3"/>
+        <v>6.5573770491803282E-2</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="4"/>
+        <v>0.6747962220209599</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
@@ -739,18 +857,37 @@
       <c r="D8" s="7">
         <v>6</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="1"/>
+        <v>9.9236641221374045E-2</v>
+      </c>
       <c r="G8" s="5">
         <v>4</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="H8" s="9">
+        <f t="shared" si="2"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="3"/>
+        <v>6.5573770491803282E-2</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="4"/>
+        <v>0.73102924052270657</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
@@ -760,18 +897,37 @@
       <c r="D9" s="7">
         <v>5</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>6.8702290076335881E-2</v>
+      </c>
       <c r="G9" s="5">
         <v>4</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="H9" s="9">
+        <f t="shared" si="2"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>4</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="3"/>
+        <v>6.5573770491803282E-2</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="4"/>
+        <v>0.50609716651572001</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
       <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
@@ -781,18 +937,37 @@
       <c r="D10" s="7">
         <v>3</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="1"/>
+        <v>4.5801526717557252E-2</v>
+      </c>
       <c r="G10" s="5">
         <v>4</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="H10" s="9">
+        <f t="shared" si="2"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="3"/>
+        <v>4.9180327868852458E-2</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="4"/>
+        <v>0.38373953830589536</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
@@ -802,18 +977,37 @@
       <c r="D11" s="7">
         <v>7</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.10687022900763359</v>
+      </c>
       <c r="G11" s="5">
         <v>6</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="H11" s="9">
+        <f t="shared" si="2"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="I11" s="5">
+        <v>7</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="3"/>
+        <v>0.11475409836065574</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="4"/>
+        <v>0.48573566831312676</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
       <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
@@ -823,20 +1017,39 @@
       <c r="D12" s="7">
         <v>8</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.12213740458015267</v>
+      </c>
       <c r="G12" s="5">
         <v>4</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="H12" s="9">
+        <f t="shared" si="2"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>8</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="3"/>
+        <v>0.13114754098360656</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" si="4"/>
+        <v>0.60667393675027259</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
       <c r="B13" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7">
         <v>6</v>
@@ -844,15 +1057,32 @@
       <c r="D13" s="7">
         <v>6</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="1"/>
+        <v>9.1603053435114504E-2</v>
+      </c>
       <c r="G13" s="5">
         <v>8</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="H13" s="9">
+        <f t="shared" si="2"/>
+        <v>0.14035087719298245</v>
+      </c>
+      <c r="I13" s="5">
+        <v>7</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="3"/>
+        <v>0.11475409836065574</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="4"/>
+        <v>0.3590798385500486</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -864,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -911,7 +1141,9 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
@@ -921,16 +1153,37 @@
       <c r="D2" s="7">
         <v>8</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="E2" s="5">
+        <f>SUM(C2:D2)</f>
+        <v>16</v>
+      </c>
+      <c r="F2" s="9">
+        <f>E2/SUM(E:E)</f>
+        <v>0.19277108433734941</v>
+      </c>
+      <c r="G2" s="5">
+        <v>7</v>
+      </c>
+      <c r="H2" s="9">
+        <f>G2/SUM(G:G)</f>
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="I2" s="5">
+        <v>8</v>
+      </c>
+      <c r="J2" s="9">
+        <f>I2/SUM(I:I)</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="K2" s="10">
+        <f>F2/(H2+J2)</f>
+        <v>0.48227071989023712</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
@@ -940,16 +1193,37 @@
       <c r="D3" s="7">
         <v>7</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E8" si="0">SUM(C3:D3)</f>
+        <v>14</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F8" si="1">E3/SUM(E:E)</f>
+        <v>0.16867469879518071</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H8" si="2">G3/SUM(G:G)</f>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="I3" s="5">
+        <v>4</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J8" si="3">I3/SUM(I:I)</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="K3" s="10">
+        <f t="shared" ref="K3:K8" si="4">F3/(H3+J3)</f>
+        <v>0.79052208835341364</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
@@ -959,16 +1233,37 @@
       <c r="D4" s="7">
         <v>5</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13253012048192772</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="2"/>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="I4" s="5">
+        <v>4</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="3"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" si="4"/>
+        <v>0.62112449799196789</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
       <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
@@ -978,16 +1273,37 @@
       <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="1"/>
+        <v>6.0240963855421686E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="2"/>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="3"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" si="4"/>
+        <v>0.28232931726907629</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
       <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
@@ -997,16 +1313,37 @@
       <c r="D6" s="7">
         <v>6</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13253012048192772</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="2"/>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="3"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="4"/>
+        <v>0.62112449799196789</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
@@ -1016,18 +1353,39 @@
       <c r="D7" s="7">
         <v>8</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="1"/>
+        <v>0.18072289156626506</v>
+      </c>
+      <c r="G7" s="5">
+        <v>6</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="2"/>
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="I7" s="5">
+        <v>7</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="3"/>
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="4"/>
+        <v>0.52175849187303625</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -1035,13 +1393,32 @@
       <c r="D8" s="7">
         <v>6</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13253012048192772</v>
+      </c>
+      <c r="G8" s="5">
+        <v>8</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="2"/>
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="I8" s="5">
+        <v>7</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="3"/>
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="4"/>
+        <v>0.33097220141667916</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/受控文档/05-需求分析/需求优先级/优先级打分（终）/游客优先级.xlsx
+++ b/受控文档/05-需求分析/需求优先级/优先级打分（终）/游客优先级.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>序号</t>
   </si>
@@ -128,6 +128,14 @@
   </si>
   <si>
     <t>界面访问限制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区内热门博主板块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区内热门博主板块</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -556,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -623,25 +631,25 @@
       </c>
       <c r="F2" s="9">
         <f>E2/SUM(E:E)</f>
-        <v>0.13740458015267176</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="G2" s="5">
         <v>7</v>
       </c>
       <c r="H2" s="9">
         <f>G2/SUM(G:G)</f>
-        <v>0.12280701754385964</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="I2" s="5">
         <v>8</v>
       </c>
       <c r="J2" s="9">
         <f>I2/SUM(I:I)</f>
-        <v>0.13114754098360656</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="K2" s="10">
         <f>F2/(H2+J2)</f>
-        <v>0.54105971142790465</v>
+        <v>0.57883708748035623</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -658,30 +666,30 @@
         <v>6</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E13" si="0">SUM(C3:D3)</f>
+        <f t="shared" ref="E3:E14" si="0">SUM(C3:D3)</f>
         <v>14</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:F13" si="1">E3/SUM(E:E)</f>
-        <v>0.10687022900763359</v>
+        <f t="shared" ref="F3:F14" si="1">E3/SUM(E:E)</f>
+        <v>0.10144927536231885</v>
       </c>
       <c r="G3" s="5">
         <v>4</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H13" si="2">G3/SUM(G:G)</f>
-        <v>7.0175438596491224E-2</v>
+        <f t="shared" ref="H3:H14" si="2">G3/SUM(G:G)</f>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="I3" s="5">
         <v>4</v>
       </c>
       <c r="J3" s="9">
-        <f t="shared" ref="J3:J13" si="3">I3/SUM(I:I)</f>
-        <v>6.5573770491803282E-2</v>
+        <f t="shared" ref="J3:J14" si="3">I3/SUM(I:I)</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="K3" s="10">
-        <f t="shared" ref="K3:K13" si="4">F3/(H3+J3)</f>
-        <v>0.78726225902445324</v>
+        <f t="shared" ref="K3:K14" si="4">F3/(H3+J3)</f>
+        <v>0.8428680396643784</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -703,25 +711,25 @@
       </c>
       <c r="F4" s="9">
         <f t="shared" si="1"/>
-        <v>6.8702290076335881E-2</v>
+        <v>6.5217391304347824E-2</v>
       </c>
       <c r="G4" s="5">
         <v>4</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" si="2"/>
-        <v>7.0175438596491224E-2</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="I4" s="5">
         <v>4</v>
       </c>
       <c r="J4" s="9">
         <f t="shared" si="3"/>
-        <v>6.5573770491803282E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="K4" s="10">
         <f t="shared" si="4"/>
-        <v>0.50609716651572001</v>
+        <v>0.54184373978424316</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -743,25 +751,25 @@
       </c>
       <c r="F5" s="9">
         <f t="shared" si="1"/>
-        <v>3.8167938931297711E-2</v>
+        <v>3.6231884057971016E-2</v>
       </c>
       <c r="G5" s="5">
         <v>4</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="2"/>
-        <v>7.0175438596491224E-2</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="I5" s="5">
         <v>4</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="3"/>
-        <v>6.5573770491803282E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" si="4"/>
-        <v>0.28116509250873334</v>
+        <v>0.30102429988013513</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -783,25 +791,25 @@
       </c>
       <c r="F6" s="9">
         <f t="shared" si="1"/>
-        <v>2.2900763358778626E-2</v>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="G6" s="5">
         <v>4</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="2"/>
-        <v>7.0175438596491224E-2</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="I6" s="5">
         <v>4</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" si="3"/>
-        <v>6.5573770491803282E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="K6" s="10">
         <f t="shared" si="4"/>
-        <v>0.16869905550523998</v>
+        <v>0.18061457992808105</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -823,25 +831,25 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>9.1603053435114504E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="G7" s="5">
         <v>4</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="2"/>
-        <v>7.0175438596491224E-2</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="I7" s="5">
         <v>4</v>
       </c>
       <c r="J7" s="9">
         <f t="shared" si="3"/>
-        <v>6.5573770491803282E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="K7" s="10">
         <f t="shared" si="4"/>
-        <v>0.6747962220209599</v>
+        <v>0.72245831971232422</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -863,25 +871,25 @@
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>9.9236641221374045E-2</v>
+        <v>9.420289855072464E-2</v>
       </c>
       <c r="G8" s="5">
         <v>4</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="2"/>
-        <v>7.0175438596491224E-2</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="I8" s="5">
         <v>4</v>
       </c>
       <c r="J8" s="9">
         <f t="shared" si="3"/>
-        <v>6.5573770491803282E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="K8" s="10">
         <f t="shared" si="4"/>
-        <v>0.73102924052270657</v>
+        <v>0.78266317968835131</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -903,25 +911,25 @@
       </c>
       <c r="F9" s="9">
         <f t="shared" si="1"/>
-        <v>6.8702290076335881E-2</v>
+        <v>6.5217391304347824E-2</v>
       </c>
       <c r="G9" s="5">
         <v>4</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="2"/>
-        <v>7.0175438596491224E-2</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="I9" s="5">
         <v>4</v>
       </c>
       <c r="J9" s="9">
         <f t="shared" si="3"/>
-        <v>6.5573770491803282E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="K9" s="10">
         <f t="shared" si="4"/>
-        <v>0.50609716651572001</v>
+        <v>0.54184373978424316</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -943,25 +951,25 @@
       </c>
       <c r="F10" s="9">
         <f t="shared" si="1"/>
-        <v>4.5801526717557252E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="G10" s="5">
         <v>4</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="2"/>
-        <v>7.0175438596491224E-2</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="I10" s="5">
         <v>3</v>
       </c>
       <c r="J10" s="9">
         <f t="shared" si="3"/>
-        <v>4.9180327868852458E-2</v>
+        <v>4.4117647058823532E-2</v>
       </c>
       <c r="K10" s="10">
         <f t="shared" si="4"/>
-        <v>0.38373953830589536</v>
+        <v>0.41150730844427885</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -983,25 +991,25 @@
       </c>
       <c r="F11" s="9">
         <f t="shared" si="1"/>
-        <v>0.10687022900763359</v>
+        <v>0.10144927536231885</v>
       </c>
       <c r="G11" s="5">
         <v>6</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="2"/>
-        <v>0.10526315789473684</v>
+        <v>9.2307692307692313E-2</v>
       </c>
       <c r="I11" s="5">
         <v>7</v>
       </c>
       <c r="J11" s="9">
         <f t="shared" si="3"/>
-        <v>0.11475409836065574</v>
+        <v>0.10294117647058823</v>
       </c>
       <c r="K11" s="10">
         <f t="shared" si="4"/>
-        <v>0.48573566831312676</v>
+        <v>0.51958956790434452</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1023,25 +1031,25 @@
       </c>
       <c r="F12" s="9">
         <f t="shared" si="1"/>
-        <v>0.12213740458015267</v>
+        <v>0.11594202898550725</v>
       </c>
       <c r="G12" s="5">
         <v>4</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="2"/>
-        <v>7.0175438596491224E-2</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="I12" s="5">
         <v>8</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="3"/>
-        <v>0.13114754098360656</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="K12" s="10">
         <f t="shared" si="4"/>
-        <v>0.60667393675027259</v>
+        <v>0.64705021226760362</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1063,25 +1071,65 @@
       </c>
       <c r="F13" s="9">
         <f t="shared" si="1"/>
-        <v>9.1603053435114504E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="G13" s="5">
         <v>8</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="2"/>
-        <v>0.14035087719298245</v>
+        <v>0.12307692307692308</v>
       </c>
       <c r="I13" s="5">
         <v>7</v>
       </c>
       <c r="J13" s="9">
         <f t="shared" si="3"/>
-        <v>0.11475409836065574</v>
+        <v>0.10294117647058823</v>
       </c>
       <c r="K13" s="10">
         <f t="shared" si="4"/>
-        <v>0.3590798385500486</v>
+        <v>0.38473255864560213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="1"/>
+        <v>5.0724637681159424E-2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>8</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="2"/>
+        <v>0.12307692307692308</v>
+      </c>
+      <c r="I14" s="5">
+        <v>7</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="3"/>
+        <v>0.10294117647058823</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="4"/>
+        <v>0.22442732587660125</v>
       </c>
     </row>
   </sheetData>
@@ -1092,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1159,25 +1207,25 @@
       </c>
       <c r="F2" s="9">
         <f>E2/SUM(E:E)</f>
-        <v>0.19277108433734941</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="G2" s="5">
         <v>7</v>
       </c>
       <c r="H2" s="9">
         <f>G2/SUM(G:G)</f>
-        <v>0.1891891891891892</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="I2" s="5">
         <v>8</v>
       </c>
       <c r="J2" s="9">
         <f>I2/SUM(I:I)</f>
-        <v>0.21052631578947367</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="K2" s="10">
         <f>F2/(H2+J2)</f>
-        <v>0.48227071989023712</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1194,30 +1242,30 @@
         <v>7</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E8" si="0">SUM(C3:D3)</f>
+        <f t="shared" ref="E3:E9" si="0">SUM(C3:D3)</f>
         <v>14</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:F8" si="1">E3/SUM(E:E)</f>
-        <v>0.16867469879518071</v>
+        <f t="shared" ref="F3:F9" si="1">E3/SUM(E:E)</f>
+        <v>0.15555555555555556</v>
       </c>
       <c r="G3" s="5">
         <v>4</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H8" si="2">G3/SUM(G:G)</f>
-        <v>0.10810810810810811</v>
+        <f t="shared" ref="H3:H9" si="2">G3/SUM(G:G)</f>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="I3" s="5">
         <v>4</v>
       </c>
       <c r="J3" s="9">
-        <f t="shared" ref="J3:J8" si="3">I3/SUM(I:I)</f>
-        <v>0.10526315789473684</v>
+        <f t="shared" ref="J3:J9" si="3">I3/SUM(I:I)</f>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="K3" s="10">
-        <f t="shared" ref="K3:K8" si="4">F3/(H3+J3)</f>
-        <v>0.79052208835341364</v>
+        <f t="shared" ref="K3:K9" si="4">F3/(H3+J3)</f>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1239,25 +1287,25 @@
       </c>
       <c r="F4" s="9">
         <f t="shared" si="1"/>
-        <v>0.13253012048192772</v>
+        <v>0.12222222222222222</v>
       </c>
       <c r="G4" s="5">
         <v>4</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" si="2"/>
-        <v>0.10810810810810811</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="I4" s="5">
         <v>4</v>
       </c>
       <c r="J4" s="9">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="K4" s="10">
         <f t="shared" si="4"/>
-        <v>0.62112449799196789</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1279,25 +1327,25 @@
       </c>
       <c r="F5" s="9">
         <f t="shared" si="1"/>
-        <v>6.0240963855421686E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="G5" s="5">
         <v>4</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="2"/>
-        <v>0.10810810810810811</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="I5" s="5">
         <v>4</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" si="4"/>
-        <v>0.28232931726907629</v>
+        <v>0.31249999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1319,25 +1367,25 @@
       </c>
       <c r="F6" s="9">
         <f t="shared" si="1"/>
-        <v>0.13253012048192772</v>
+        <v>0.12222222222222222</v>
       </c>
       <c r="G6" s="5">
         <v>4</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="2"/>
-        <v>0.10810810810810811</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="I6" s="5">
         <v>4</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" si="3"/>
-        <v>0.10526315789473684</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="K6" s="10">
         <f t="shared" si="4"/>
-        <v>0.62112449799196789</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1359,25 +1407,25 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.18072289156626506</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G7" s="5">
         <v>6</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="2"/>
-        <v>0.16216216216216217</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I7" s="5">
         <v>7</v>
       </c>
       <c r="J7" s="9">
         <f t="shared" si="3"/>
-        <v>0.18421052631578946</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="K7" s="10">
         <f t="shared" si="4"/>
-        <v>0.52175849187303625</v>
+        <v>0.57692307692307698</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1399,25 +1447,65 @@
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>0.13253012048192772</v>
+        <v>0.12222222222222222</v>
       </c>
       <c r="G8" s="5">
         <v>8</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="2"/>
-        <v>0.21621621621621623</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="I8" s="5">
         <v>7</v>
       </c>
       <c r="J8" s="9">
         <f t="shared" si="3"/>
-        <v>0.18421052631578946</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="K8" s="10">
         <f t="shared" si="4"/>
-        <v>0.33097220141667916</v>
+        <v>0.36666666666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>8</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="2"/>
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="I9" s="5">
+        <v>7</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="3"/>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="4"/>
+        <v>0.23333333333333331</v>
       </c>
     </row>
   </sheetData>
